--- a/Flight_Regression Test Suite/Default.xlsx
+++ b/Flight_Regression Test Suite/Default.xlsx
@@ -17,9 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
-    <t>12-Jan-2022</t>
-  </si>
-  <si>
     <t>Zurich</t>
   </si>
   <si>
@@ -29,12 +26,12 @@
     <t>Mark</t>
   </si>
   <si>
-    <t>12-Dec-2021</t>
-  </si>
-  <si>
     <t>Price per Ticket</t>
   </si>
   <si>
+    <t>27-Mar-2024</t>
+  </si>
+  <si>
     <t>Seattle</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>Jenny</t>
   </si>
   <si>
-    <t>25-Dec-2021</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
@@ -59,15 +53,18 @@
     <t>Travel_Date</t>
   </si>
   <si>
+    <t>12-Nov-2023</t>
+  </si>
+  <si>
+    <t>12-Dec-2023</t>
+  </si>
+  <si>
     <t>Paris</t>
   </si>
   <si>
     <t>Pass_Name</t>
   </si>
   <si>
-    <t>27-Mar-2022</t>
-  </si>
-  <si>
     <t>From_City</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Joe</t>
+  </si>
+  <si>
+    <t>25-Dec-2023</t>
   </si>
   <si>
     <t>Economy</t>
@@ -283,10 +283,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
@@ -591,7 +591,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -606,27 +606,27 @@
     <col min="8" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1">
+    <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -634,7 +634,7 @@
         <v>416.39999999999998</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
@@ -646,33 +646,33 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>167.19999999999999</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -680,7 +680,7 @@
         <v>489.88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
@@ -692,24 +692,24 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1758</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>5</v>
@@ -718,7 +718,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Flight_Regression Test Suite/Default.xlsx
+++ b/Flight_Regression Test Suite/Default.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
-  <si>
-    <t>Zurich</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Class</t>
   </si>
@@ -32,15 +29,9 @@
     <t>27-Mar-2024</t>
   </si>
   <si>
-    <t>Seattle</t>
-  </si>
-  <si>
     <t>Sydney</t>
   </si>
   <si>
-    <t>Jenny</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
@@ -53,12 +44,6 @@
     <t>Travel_Date</t>
   </si>
   <si>
-    <t>12-Nov-2023</t>
-  </si>
-  <si>
-    <t>12-Dec-2023</t>
-  </si>
-  <si>
     <t>Paris</t>
   </si>
   <si>
@@ -74,22 +59,10 @@
     <t>First</t>
   </si>
   <si>
-    <t>Joe</t>
-  </si>
-  <si>
     <t>25-Dec-2023</t>
   </si>
   <si>
-    <t>Economy</t>
-  </si>
-  <si>
     <t>Amy</t>
-  </si>
-  <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
-    <t>Portland</t>
   </si>
 </sst>
 </file>
@@ -272,24 +245,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -588,137 +558,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.01171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.41796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.80078125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.078125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.01171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.41796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.80078125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>416.39999999999998</v>
+      <c r="A2" s="5">
+        <v>167.19999999999999</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
-        <v>167.19999999999999</v>
+      <c r="A3" s="4">
+        <v>2022</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>489.88</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>1758</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +660,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="3" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1"/>
